--- a/A-开发相关文档素材/1.一期接口文档/前端接口文档New.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/前端接口文档New.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\1.一期接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>类别</t>
   </si>
@@ -236,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -258,6 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,6 +285,13 @@
   </si>
   <si>
     <t>UoModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(出参详细说明请见Model)</t>
+  </si>
+  <si>
+    <t>(出参详细说明请见Model)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -462,24 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -499,10 +490,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -810,10 +819,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,10 +839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="2:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
@@ -860,13 +869,13 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -886,9 +895,9 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -903,12 +912,14 @@
       <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -923,12 +934,14 @@
       <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -943,11 +956,13 @@
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -965,11 +980,13 @@
       <c r="H7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
@@ -985,11 +1002,13 @@
       <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
@@ -1005,11 +1024,13 @@
       <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
@@ -1019,20 +1040,22 @@
       <c r="F10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="17" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="15"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1041,15 +1064,17 @@
       <c r="F11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="15"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1068,7 +1093,7 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="15"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1078,7 +1103,7 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="15"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="1"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1088,7 +1113,7 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="15"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="1"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1098,7 +1123,7 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1108,7 +1133,7 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1118,7 +1143,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1128,7 +1153,7 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>

--- a/A-开发相关文档素材/1.一期接口文档/前端接口文档New.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/前端接口文档New.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>类别</t>
   </si>
@@ -179,19 +179,6 @@
     <t>(出参详细说明请见Model)</t>
   </si>
   <si>
-    <t>AuthService</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN用户
-ps密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,9 +245,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UoModel{ code： 0
+    <t>LsmService</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>* @param {string} am 手机号
+* @param {string} pw 密码
+* @param {string} ac 验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   * @param {string} un
+   * @param {string} pw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ code： 0
 message：“成功”
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ code： 0
+message：“成功”
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>* @param {string} am 手机号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* @param {string} um 手机号
+* @param {string} ac 验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* @param {string} pw 新密码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -444,6 +501,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -453,19 +516,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,12 +830,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I280"/>
+  <dimension ref="B1:I284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,213 +882,255 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="21"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="21"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="7" t="s">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="21"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="7" t="s">
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="18"/>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9" ht="189" x14ac:dyDescent="0.15">
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="8" t="s">
+    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="189" x14ac:dyDescent="0.15">
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="18"/>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="18"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1041,7 +1140,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1061,7 +1160,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="4"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1071,7 +1170,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1081,7 +1180,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1091,7 +1190,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="4"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3690,11 +3789,51 @@
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
     </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B281" s="4"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B282" s="4"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+      <c r="H282" s="8"/>
+      <c r="I282" s="8"/>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B283" s="4"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="8"/>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B284" s="4"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="C3:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/1.一期接口文档/前端接口文档New.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/前端接口文档New.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>类别</t>
   </si>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UserService</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>getUo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -318,6 +314,33 @@
   </si>
   <si>
     <t>* @param {string} pw 新密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>UserService</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* @param {string} uI 用户uuID
+* @param {string} uN 昵称
+* @param {string} hIU 头像URL
+* @param {string} biy 生日
+* @param {string} uS 性别
+* @param {string} uCt 联系方式
+* @param {string} aQ 消息队列
+* @param {string} uT token
+* @param uty 0游客1正式用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -830,12 +853,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I284"/>
+  <dimension ref="B1:I285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -884,22 +907,22 @@
     <row r="3" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B3" s="15"/>
       <c r="C3" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -907,19 +930,19 @@
       <c r="B4" s="15"/>
       <c r="C4" s="19"/>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -927,17 +950,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="19"/>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -945,19 +968,19 @@
       <c r="B6" s="15"/>
       <c r="C6" s="19"/>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -965,19 +988,19 @@
       <c r="B7" s="15"/>
       <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -985,19 +1008,19 @@
       <c r="B8" s="15"/>
       <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -1005,139 +1028,149 @@
       <c r="B9" s="15"/>
       <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="16" t="s">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9" ht="189" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" ht="189" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="189" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="13" t="s">
+      <c r="H14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
@@ -1190,7 +1223,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1200,7 +1233,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3829,11 +3862,21 @@
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
     </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B285" s="4"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
+      <c r="I285" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C3:C10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
